--- a/sales_history.xlsx
+++ b/sales_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,35 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-17 06:33:20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Товар</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>278 500 ₽
+188 500 ₽
+ -32%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://collect.tsum.ru/item/ITEM266795</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sales_history.xlsx
+++ b/sales_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,35 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-17 10:26:26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Товар</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>67 300 ₽
+62 950 ₽
+ -6%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>очень давно</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://collect.tsum.ru/item/ITEM140818</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
